--- a/Projetos/SENAI_MEDICAL_GROUP/Modelo_Fisico.xlsx
+++ b/Projetos/SENAI_MEDICAL_GROUP/Modelo_Fisico.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20371"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\OneDrive\Área de Trabalho\SENAI_Sprint1_Database\Projetos\SENAI_MEDICAL_GROUP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48478964835\Desktop\SENAI_Sprint1_Database\Projetos\SENAI_MEDICAL_GROUP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BB0EBDC-5FB5-4985-9633-D406F1B16EE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8653DA3-765F-4B38-98B1-D27E4271B58B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E784BB59-3FD0-43E1-8B18-BCB39AA34960}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="114">
   <si>
     <t>TipoUsuario</t>
   </si>
@@ -342,18 +342,9 @@
     <t>mariana987</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>IdLogin</t>
-  </si>
-  <si>
     <t>Senha</t>
   </si>
   <si>
-    <t>IdUsuario</t>
-  </si>
-  <si>
     <t>clinica</t>
   </si>
   <si>
@@ -376,9 +367,6 @@
   </si>
   <si>
     <t>SP Médical Group</t>
-  </si>
-  <si>
-    <t>IdEmail</t>
   </si>
 </sst>
 </file>
@@ -425,7 +413,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="32">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -554,24 +542,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -596,19 +566,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCC00CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF00FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF66FF"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,7 +590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -634,23 +598,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -659,81 +611,87 @@
     </xf>
     <xf numFmtId="22" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1059,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51758068-9927-4DE9-960E-8CE1D5A31808}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="J30" sqref="I30:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,78 +1031,78 @@
     <col min="6" max="6" width="22.28515625" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" customWidth="1"/>
     <col min="8" max="8" width="38.140625" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="39.85546875" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" customWidth="1"/>
     <col min="12" max="12" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="D1" s="34" t="s">
+      <c r="B1" s="24"/>
+      <c r="D1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="K1" s="7" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="K1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="8"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="33">
+      <c r="A3" s="20">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="35">
-        <v>4</v>
-      </c>
-      <c r="F3" s="35" t="s">
+      <c r="E3" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="21" t="s">
         <v>53</v>
       </c>
       <c r="K3" s="3">
@@ -1155,25 +1113,25 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="33">
+      <c r="A4" s="20">
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="35">
-        <v>5</v>
-      </c>
-      <c r="F4" s="35" t="s">
+      <c r="E4" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="21" t="s">
         <v>58</v>
       </c>
       <c r="K4" s="3">
@@ -1184,25 +1142,25 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="33">
+      <c r="A5" s="20">
         <v>3</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="35">
-        <v>6</v>
-      </c>
-      <c r="F5" s="36">
+      <c r="E5" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="22">
         <v>28773</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="21" t="s">
         <v>62</v>
       </c>
       <c r="K5" s="3">
@@ -1213,19 +1171,19 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="35">
-        <v>7</v>
-      </c>
-      <c r="F6" s="35" t="s">
+      <c r="E6" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="21" t="s">
         <v>67</v>
       </c>
       <c r="K6" s="3">
@@ -1236,19 +1194,19 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="35">
-        <v>8</v>
-      </c>
-      <c r="F7" s="35" t="s">
+      <c r="E7" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="21" t="s">
         <v>71</v>
       </c>
       <c r="K7" s="3">
@@ -1259,19 +1217,19 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="35">
-        <v>9</v>
-      </c>
-      <c r="F8" s="35" t="s">
+      <c r="E8" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="21" t="s">
         <v>76</v>
       </c>
       <c r="K8" s="3">
@@ -1282,17 +1240,17 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="35">
-        <v>10</v>
-      </c>
-      <c r="F9" s="36">
+      <c r="E9" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="22">
         <v>43223</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35" t="s">
+      <c r="G9" s="21"/>
+      <c r="H9" s="21" t="s">
         <v>79</v>
       </c>
       <c r="K9" s="3">
@@ -1319,16 +1277,16 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
       <c r="K12" s="3">
         <v>10</v>
       </c>
@@ -1337,28 +1295,28 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="5" t="s">
         <v>32</v>
       </c>
       <c r="K13" s="3">
@@ -1481,12 +1439,19 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="F19" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
       <c r="K19" s="3">
         <v>17</v>
       </c>
@@ -1495,683 +1460,517 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="8" t="s">
         <v>83</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>105</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="9" t="s">
         <v>85</v>
       </c>
+      <c r="F21" s="14">
+        <v>1</v>
+      </c>
+      <c r="G21" s="14">
+        <v>2</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="38" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="10">
         <v>43983.416666666664</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="9" t="s">
         <v>86</v>
       </c>
+      <c r="F22" s="14">
+        <v>2</v>
+      </c>
+      <c r="G22" s="14">
+        <v>2</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="10">
         <v>44014.458333333336</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="9" t="s">
         <v>85</v>
       </c>
+      <c r="F23" s="14">
+        <v>3</v>
+      </c>
+      <c r="G23" s="14">
+        <v>2</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="38" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="10">
         <v>43253.416666666664</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="9" t="s">
         <v>85</v>
       </c>
+      <c r="F24" s="14">
+        <v>4</v>
+      </c>
+      <c r="G24" s="14">
+        <v>3</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" s="38" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="10">
         <v>43648.458333333336</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="9" t="s">
         <v>86</v>
       </c>
+      <c r="F25" s="14">
+        <v>5</v>
+      </c>
+      <c r="G25" s="14">
+        <v>3</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" s="38" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="10">
         <v>44046.625</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="9" t="s">
         <v>87</v>
       </c>
+      <c r="F26" s="14">
+        <v>6</v>
+      </c>
+      <c r="G26" s="14">
+        <v>3</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" s="38" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="10">
         <v>44077.458333333336</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="9" t="s">
         <v>87</v>
       </c>
+      <c r="F27" s="14">
+        <v>7</v>
+      </c>
+      <c r="G27" s="14">
+        <v>3</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" s="38" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E28" s="25"/>
-      <c r="F28" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="26"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="14">
+        <v>8</v>
+      </c>
+      <c r="G28" s="14">
+        <v>3</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="J28" s="38" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F29" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="J29" s="27"/>
+      <c r="F29" s="14">
+        <v>9</v>
+      </c>
+      <c r="G29" s="14">
+        <v>3</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I29" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="J29" s="38" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="A30" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="30"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="F30" s="20">
+      <c r="F30" s="14">
+        <v>10</v>
+      </c>
+      <c r="G30" s="14">
+        <v>3</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="J30" s="38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+    </row>
+    <row r="32" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
         <v>1</v>
       </c>
-      <c r="G30" s="20">
+      <c r="B32" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
         <v>2</v>
       </c>
-      <c r="H30" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="I30" s="20">
+      <c r="B33" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="35"/>
+      <c r="D33" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>3</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="35"/>
+      <c r="D34" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="18">
         <v>1</v>
       </c>
-      <c r="J30" s="27"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="F31" s="20">
-        <v>2</v>
-      </c>
-      <c r="G31" s="20">
-        <v>2</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="I31" s="20">
-        <v>2</v>
-      </c>
-      <c r="J31" s="27"/>
-    </row>
-    <row r="32" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="F32" s="20">
-        <v>3</v>
-      </c>
-      <c r="G32" s="20">
-        <v>2</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="I32" s="20">
-        <v>3</v>
-      </c>
-      <c r="J32" s="27"/>
-    </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="24">
-        <v>1</v>
-      </c>
-      <c r="B33" s="24">
-        <v>1</v>
-      </c>
-      <c r="C33" s="22">
-        <v>1</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F33" s="20">
-        <v>4</v>
-      </c>
-      <c r="G33" s="20">
-        <v>3</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="I33" s="20">
-        <v>4</v>
-      </c>
-      <c r="J33" s="27"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="24">
-        <v>2</v>
-      </c>
-      <c r="B34" s="24">
-        <v>2</v>
-      </c>
-      <c r="C34" s="22">
-        <v>2</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" s="20">
-        <v>5</v>
-      </c>
-      <c r="G34" s="20">
-        <v>3</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="I34" s="20">
-        <v>5</v>
-      </c>
-      <c r="J34" s="27"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="24">
-        <v>3</v>
-      </c>
-      <c r="B35" s="24">
-        <v>3</v>
-      </c>
-      <c r="C35" s="22">
-        <v>3</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="F35" s="20">
-        <v>6</v>
-      </c>
-      <c r="G35" s="20">
-        <v>3</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="I35" s="20">
-        <v>6</v>
-      </c>
-      <c r="J35" s="27"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="24">
-        <v>4</v>
-      </c>
-      <c r="B36" s="24">
-        <v>4</v>
-      </c>
-      <c r="C36" s="22">
-        <v>4</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="F36" s="20">
-        <v>7</v>
-      </c>
-      <c r="G36" s="20">
-        <v>3</v>
-      </c>
-      <c r="H36" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="I36" s="20">
-        <v>7</v>
-      </c>
-      <c r="J36" s="27"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="24">
-        <v>5</v>
-      </c>
-      <c r="B37" s="24">
-        <v>5</v>
-      </c>
-      <c r="C37" s="22">
-        <v>5</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="F37" s="20">
-        <v>8</v>
-      </c>
-      <c r="G37" s="20">
-        <v>3</v>
-      </c>
-      <c r="H37" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="I37" s="20">
-        <v>8</v>
-      </c>
-      <c r="J37" s="27"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="24">
-        <v>6</v>
-      </c>
-      <c r="B38" s="24">
-        <v>6</v>
-      </c>
-      <c r="C38" s="22">
-        <v>6</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="F38" s="20">
-        <v>9</v>
-      </c>
-      <c r="G38" s="20">
-        <v>3</v>
-      </c>
-      <c r="H38" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="I38" s="20">
-        <v>9</v>
-      </c>
-      <c r="J38" s="27"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="24">
-        <v>7</v>
-      </c>
-      <c r="B39" s="24">
-        <v>7</v>
-      </c>
-      <c r="C39" s="22">
-        <v>7</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="F39" s="20">
-        <v>10</v>
-      </c>
-      <c r="G39" s="20">
-        <v>3</v>
-      </c>
-      <c r="H39" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="I39" s="20">
-        <v>10</v>
-      </c>
-      <c r="J39" s="27"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="24">
-        <v>8</v>
-      </c>
-      <c r="B40" s="24">
-        <v>8</v>
-      </c>
-      <c r="C40" s="22">
-        <v>8</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="24">
-        <v>9</v>
-      </c>
-      <c r="B41" s="24">
-        <v>9</v>
-      </c>
-      <c r="C41" s="22">
-        <v>9</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="24">
-        <v>10</v>
-      </c>
-      <c r="B42" s="24">
-        <v>10</v>
-      </c>
-      <c r="C42" s="22">
-        <v>10</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E35" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="32"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="32"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="32"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="32"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="32"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="32"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="32"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" s="15"/>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="F45" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="F46" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="G46" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="H46" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="I46" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="J46" s="30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="17">
-        <v>1</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F47" s="31">
-        <v>1</v>
-      </c>
-      <c r="G47" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="H47" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="I47" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="J47" s="31" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="17">
-        <v>2</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="17">
-        <v>3</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B54" s="37"/>
-      <c r="C54" s="37"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="B55" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="C55" s="40" t="s">
-        <v>28</v>
-      </c>
+      <c r="A55" s="32"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="41">
-        <v>1</v>
-      </c>
-      <c r="B56" s="41">
-        <v>1</v>
-      </c>
-      <c r="C56" s="38" t="s">
-        <v>35</v>
-      </c>
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="33"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="41">
-        <v>2</v>
-      </c>
-      <c r="B57" s="41">
-        <v>2</v>
-      </c>
-      <c r="C57" s="38" t="s">
-        <v>42</v>
-      </c>
+      <c r="A57" s="32"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="33"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="41">
-        <v>3</v>
-      </c>
-      <c r="B58" s="41">
-        <v>3</v>
-      </c>
-      <c r="C58" s="38" t="s">
-        <v>45</v>
-      </c>
+      <c r="A58" s="32"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="33"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="41">
-        <v>4</v>
-      </c>
-      <c r="B59" s="41">
-        <v>4</v>
-      </c>
-      <c r="C59" s="39" t="s">
-        <v>50</v>
-      </c>
+      <c r="A59" s="32"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="34"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="41">
-        <v>5</v>
-      </c>
-      <c r="B60" s="41">
-        <v>5</v>
-      </c>
-      <c r="C60" s="38" t="s">
-        <v>55</v>
-      </c>
+      <c r="A60" s="32"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="33"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="41">
-        <v>6</v>
-      </c>
-      <c r="B61" s="41">
-        <v>6</v>
-      </c>
-      <c r="C61" s="38" t="s">
-        <v>60</v>
-      </c>
+      <c r="A61" s="32"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="33"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="41">
-        <v>7</v>
-      </c>
-      <c r="B62" s="41">
-        <v>7</v>
-      </c>
-      <c r="C62" s="38" t="s">
-        <v>64</v>
-      </c>
+      <c r="A62" s="32"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="33"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="41">
-        <v>8</v>
-      </c>
-      <c r="B63" s="41">
-        <v>8</v>
-      </c>
-      <c r="C63" s="38" t="s">
-        <v>101</v>
-      </c>
+      <c r="A63" s="32"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="33"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="41">
-        <v>9</v>
-      </c>
-      <c r="B64" s="41">
-        <v>9</v>
-      </c>
-      <c r="C64" s="38" t="s">
-        <v>73</v>
-      </c>
+      <c r="A64" s="32"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="33"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="41">
-        <v>10</v>
-      </c>
-      <c r="B65" s="41">
-        <v>10</v>
-      </c>
-      <c r="C65" s="38" t="s">
-        <v>78</v>
-      </c>
+      <c r="A65" s="32"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:H1"/>
+  <mergeCells count="8">
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:H1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C60" r:id="rId1" xr:uid="{F3DCD4AA-5D6C-488E-B3B5-CC8F9600D7EE}"/>
-    <hyperlink ref="C61" r:id="rId2" xr:uid="{13A9E6B5-D078-45FA-B684-2D9994CFE637}"/>
-    <hyperlink ref="C62" r:id="rId3" xr:uid="{EE5F8795-D249-4768-BA54-ABAEBB09E880}"/>
-    <hyperlink ref="C63" r:id="rId4" xr:uid="{129AB2C5-9424-48AD-95DC-E414809FCFA0}"/>
-    <hyperlink ref="C64" r:id="rId5" xr:uid="{26A5C375-481A-448F-9F18-7D8FEA90C07D}"/>
-    <hyperlink ref="C65" r:id="rId6" xr:uid="{57D53E85-42F5-42FA-9F95-678D183F6352}"/>
-    <hyperlink ref="C59" r:id="rId7" xr:uid="{C3F8A909-ABB3-479A-A3A5-3099938EDB25}"/>
-    <hyperlink ref="C56" r:id="rId8" xr:uid="{745030A9-EA60-463B-9DA2-AC154F5B5A76}"/>
-    <hyperlink ref="C57" r:id="rId9" xr:uid="{E2ADBFCB-CE92-4041-A3A7-C2DB187C82AF}"/>
-    <hyperlink ref="C58" r:id="rId10" xr:uid="{775F1F6C-D406-45A6-A460-20D90FE1DC49}"/>
+    <hyperlink ref="I23" r:id="rId1" xr:uid="{B0BCCBAF-835C-42F9-894B-3AEBB35591C6}"/>
+    <hyperlink ref="I22" r:id="rId2" xr:uid="{88A887DA-2886-459B-B8E1-501EE63B3E42}"/>
+    <hyperlink ref="I21" r:id="rId3" xr:uid="{29F0D065-0E2F-41FD-8977-401F0E8EF10F}"/>
+    <hyperlink ref="I24" r:id="rId4" xr:uid="{EAEFF48E-9861-4D7E-BBAD-7F065A3D08F0}"/>
+    <hyperlink ref="I30" r:id="rId5" xr:uid="{CBB518D7-7F5D-48DA-B347-920838594F7E}"/>
+    <hyperlink ref="I29" r:id="rId6" xr:uid="{B627227B-97AA-4FF3-BA58-1EAEA07A220B}"/>
+    <hyperlink ref="I28" r:id="rId7" xr:uid="{F1E81716-F662-456B-B6E2-39665C8B9625}"/>
+    <hyperlink ref="I27" r:id="rId8" xr:uid="{5E842FB9-65EA-46DB-9366-ABEC140C2A3C}"/>
+    <hyperlink ref="I26" r:id="rId9" xr:uid="{68082E49-9E88-466B-8712-9D897ABEDC4C}"/>
+    <hyperlink ref="I25" r:id="rId10" xr:uid="{BE13BA7B-8685-4378-8A63-678FEA0E836C}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>

--- a/Projetos/SENAI_MEDICAL_GROUP/Modelo_Fisico.xlsx
+++ b/Projetos/SENAI_MEDICAL_GROUP/Modelo_Fisico.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48478964835\Desktop\SENAI_Sprint1_Database\Projetos\SENAI_MEDICAL_GROUP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\OneDrive\Área de Trabalho\SENAI_Sprint1_Database\Projetos\SENAI_MEDICAL_GROUP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8653DA3-765F-4B38-98B1-D27E4271B58B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D692A4-096B-4A19-B5B3-6415E448E28A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E784BB59-3FD0-43E1-8B18-BCB39AA34960}"/>
   </bookViews>
@@ -642,6 +642,48 @@
     <xf numFmtId="14" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -650,48 +692,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1017,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51758068-9927-4DE9-960E-8CE1D5A31808}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="J30" sqref="I30:J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,21 +1038,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="38"/>
+      <c r="D1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="K1" s="26" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="K1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="27"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -1277,16 +1277,16 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
       <c r="K12" s="3">
         <v>10</v>
       </c>
@@ -1439,19 +1439,19 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="F19" s="23" t="s">
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="F19" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
       <c r="K19" s="3">
         <v>17</v>
       </c>
@@ -1484,7 +1484,7 @@
       <c r="I20" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="36" t="s">
+      <c r="J20" s="27" t="s">
         <v>105</v>
       </c>
       <c r="K20" s="2"/>
@@ -1512,10 +1512,10 @@
       <c r="H21" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="37" t="s">
+      <c r="I21" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="J21" s="38" t="s">
+      <c r="J21" s="29" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1541,10 +1541,10 @@
       <c r="H22" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="37" t="s">
+      <c r="I22" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="38" t="s">
+      <c r="J22" s="29" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1570,10 +1570,10 @@
       <c r="H23" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="37" t="s">
+      <c r="I23" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="J23" s="38" t="s">
+      <c r="J23" s="29" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1599,10 +1599,10 @@
       <c r="H24" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I24" s="39" t="s">
+      <c r="I24" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="J24" s="38" t="s">
+      <c r="J24" s="29" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1628,10 +1628,10 @@
       <c r="H25" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="I25" s="37" t="s">
+      <c r="I25" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="J25" s="38" t="s">
+      <c r="J25" s="29" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1657,10 +1657,10 @@
       <c r="H26" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="I26" s="37" t="s">
+      <c r="I26" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="J26" s="38" t="s">
+      <c r="J26" s="29" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1686,10 +1686,10 @@
       <c r="H27" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="37" t="s">
+      <c r="I27" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="J27" s="38" t="s">
+      <c r="J27" s="29" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1704,10 +1704,10 @@
       <c r="H28" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="I28" s="37" t="s">
+      <c r="I28" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="J28" s="38" t="s">
+      <c r="J28" s="29" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1721,18 +1721,18 @@
       <c r="H29" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="I29" s="37" t="s">
+      <c r="I29" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="J29" s="38" t="s">
+      <c r="J29" s="29" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="30"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="F30" s="14">
@@ -1744,10 +1744,10 @@
       <c r="H30" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="I30" s="37" t="s">
+      <c r="I30" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="J30" s="38" t="s">
+      <c r="J30" s="29" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1768,8 +1768,8 @@
       <c r="B32" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
@@ -1778,14 +1778,14 @@
       <c r="B33" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="31" t="s">
+      <c r="C33" s="26"/>
+      <c r="D33" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
@@ -1794,7 +1794,7 @@
       <c r="B34" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="35"/>
+      <c r="C34" s="26"/>
       <c r="D34" s="17" t="s">
         <v>107</v>
       </c>
@@ -1812,9 +1812,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="35"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="26"/>
       <c r="D35" s="18">
         <v>1</v>
       </c>
@@ -1832,46 +1832,46 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="32"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="23"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="32"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="23"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="32"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="23"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="32"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="23"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="32"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="23"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="32"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="32"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="23"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
@@ -1895,59 +1895,59 @@
       <c r="C54" s="16"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="32"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="32"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="33"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="24"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="32"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="33"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="24"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="32"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="33"/>
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="24"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="32"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="34"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="25"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="32"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="33"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="24"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="32"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="33"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="24"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="32"/>
-      <c r="B62" s="32"/>
-      <c r="C62" s="33"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="24"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="32"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="33"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="24"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="32"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="33"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="24"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="32"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="33"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">
